--- a/Start_Length_Outages.xlsx
+++ b/Start_Length_Outages.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Start Dates and Duration of Outages for 2022</t>
+    <t>Start Dates and Duration of Outages for 2023</t>
   </si>
   <si>
     <t>Outage Start Date</t>
@@ -25,22 +25,7 @@
     <t>Duration (days)</t>
   </si>
   <si>
-    <t>25/05/2022</t>
-  </si>
-  <si>
-    <t>01/08/2022</t>
-  </si>
-  <si>
-    <t>01/10/2022</t>
-  </si>
-  <si>
-    <t>23/10/2022</t>
-  </si>
-  <si>
-    <t>27/11/2022</t>
-  </si>
-  <si>
-    <t>08/12/2022</t>
+    <t>01/04/2023</t>
   </si>
 </sst>
 </file>
@@ -386,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,47 +397,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Start_Length_Outages.xlsx
+++ b/Start_Length_Outages.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Start Dates and Duration of Outages for 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Start Dates and Duration of Outages for 2022</t>
   </si>
   <si>
     <t>Outage Start Date</t>
@@ -25,7 +25,22 @@
     <t>Duration (days)</t>
   </si>
   <si>
-    <t>01/04/2023</t>
+    <t>25/05/2022</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
+  </si>
+  <si>
+    <t>01/10/2022</t>
+  </si>
+  <si>
+    <t>23/10/2022</t>
+  </si>
+  <si>
+    <t>27/11/2022</t>
+  </si>
+  <si>
+    <t>08/12/2022</t>
   </si>
 </sst>
 </file>
@@ -371,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +412,47 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
